--- a/MathematicalAnalysis/source/_static/数学分析II-2025春习题课分组.xlsx
+++ b/MathematicalAnalysis/source/_static/数学分析II-2025春习题课分组.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="WpsReserved_CellImgList" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$99</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="202">
   <si>
     <t>组号</t>
   </si>
@@ -136,6 +139,12 @@
     <t>阮鑫鹏</t>
   </si>
   <si>
+    <t>2024307150304</t>
+  </si>
+  <si>
+    <t>亓昊喆</t>
+  </si>
+  <si>
     <t>第二组</t>
   </si>
   <si>
@@ -172,6 +181,12 @@
     <t>石琳轩</t>
   </si>
   <si>
+    <t>2024308130314</t>
+  </si>
+  <si>
+    <t>杨善雨</t>
+  </si>
+  <si>
     <t>第三组</t>
   </si>
   <si>
@@ -211,6 +226,27 @@
     <t>陈红旭</t>
   </si>
   <si>
+    <t>农工241</t>
+  </si>
+  <si>
+    <t>2024304010225</t>
+  </si>
+  <si>
+    <t>李响</t>
+  </si>
+  <si>
+    <t>2023319010212</t>
+  </si>
+  <si>
+    <t>郑清源</t>
+  </si>
+  <si>
+    <t>2024303090125</t>
+  </si>
+  <si>
+    <t>濮瑜</t>
+  </si>
+  <si>
     <t>第四组</t>
   </si>
   <si>
@@ -220,50 +256,36 @@
     <t>李烨</t>
   </si>
   <si>
-    <t>环境241</t>
-  </si>
-  <si>
     <t>2024303090104</t>
   </si>
   <si>
     <t>王子凡</t>
   </si>
   <si>
-    <t>环境244</t>
-  </si>
-  <si>
     <t>2024303090401</t>
   </si>
   <si>
     <t>张存溥</t>
   </si>
   <si>
-    <t>环境242</t>
-  </si>
-  <si>
     <t>2024203090225</t>
   </si>
   <si>
     <t>石妍</t>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>023310030220</t>
-    </r>
+    <t>2023310030220</t>
   </si>
   <si>
     <t>李洪兴</t>
   </si>
   <si>
+    <t>2024309080101</t>
+  </si>
+  <si>
+    <t>李林泽</t>
+  </si>
+  <si>
     <t>第五组</t>
   </si>
   <si>
@@ -309,6 +331,12 @@
     <t>叶学鹏</t>
   </si>
   <si>
+    <t>2024303090203</t>
+  </si>
+  <si>
+    <t>沈思含</t>
+  </si>
+  <si>
     <t>第六组</t>
   </si>
   <si>
@@ -384,23 +412,30 @@
     <t>数学221</t>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>021311320116</t>
-    </r>
+    <t>2021311320116</t>
   </si>
   <si>
     <t>陈俊</t>
   </si>
   <si>
+    <t>2024306100313</t>
+  </si>
+  <si>
+    <t>邓涵军</t>
+  </si>
+  <si>
+    <t>2024311320101</t>
+  </si>
+  <si>
+    <t>万若一</t>
+  </si>
+  <si>
+    <t>2024311250411</t>
+  </si>
+  <si>
+    <t>叶子卉</t>
+  </si>
+  <si>
     <t>第八组</t>
   </si>
   <si>
@@ -452,6 +487,12 @@
     <t>王一涵</t>
   </si>
   <si>
+    <t>2023308130123</t>
+  </si>
+  <si>
+    <t>曾心</t>
+  </si>
+  <si>
     <t>第九组</t>
   </si>
   <si>
@@ -518,6 +559,24 @@
     <t>冯波</t>
   </si>
   <si>
+    <t>2024301040414</t>
+  </si>
+  <si>
+    <t>高识恒</t>
+  </si>
+  <si>
+    <t>2024310060402</t>
+  </si>
+  <si>
+    <t>周奕</t>
+  </si>
+  <si>
+    <t>2024307150102</t>
+  </si>
+  <si>
+    <t>熊应行</t>
+  </si>
+  <si>
     <t>第十一组</t>
   </si>
   <si>
@@ -606,9 +665,6 @@
   </si>
   <si>
     <t>胡镇元</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -621,7 +677,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,11 +694,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -995,16 +1046,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,156 +1175,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1337,11 +1380,14 @@
 
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookInfo cellCmpFml="0">
-    <open main="42" threadCnt="1"/>
+  <bookInfo cellCmpFml="1">
+    <open main="68" threadCnt="1"/>
     <sheetInfos>
-      <sheetInfo cellCmpFml="0" sheetStid="1">
-        <open main="1" threadCnt="1"/>
+      <sheetInfo cellCmpFml="1" sheetStid="1">
+        <open main="2" threadCnt="1"/>
+      </sheetInfo>
+      <sheetInfo cellCmpFml="0" sheetStid="2">
+        <open threadCnt="1"/>
       </sheetInfo>
     </sheetInfos>
   </bookInfo>
@@ -1654,10 +1700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F102"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A100" sqref="A1:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1"/>
@@ -1689,38 +1735,38 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1730,7 +1776,7 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1739,62 +1785,62 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_FDB4DAF0AA5841DB8E7062C46BE6381A",1)</f>
         <v>=DISPIMG("ID_FDB4DAF0AA5841DB8E7062C46BE6381A",1)</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="2"/>
@@ -1802,7 +1848,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1811,72 +1857,72 @@
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -1885,99 +1931,99 @@
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1988,88 +2034,92 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="3">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2080,78 +2130,78 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="3">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2159,123 +2209,123 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2">
         <v>11</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:6">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="3">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2283,123 +2333,123 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>10</v>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="3">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2407,107 +2457,107 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:6">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="D49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:6">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="2">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:6">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:6">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2517,413 +2567,417 @@
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:6">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:6">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>10</v>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="E57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="E58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="B60" s="2">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:6">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:6">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>17</v>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:6">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:6">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="E63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:6">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="E64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:6">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" customHeight="1" spans="1:6">
-      <c r="A66" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="3">
-        <v>6</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>17</v>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:6">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>17</v>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
+      <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="E70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="2">
-        <v>3</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:6">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:6">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:6">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:6">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>10</v>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:6">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
+      <c r="A77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="B77" s="2">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:6">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:6">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="E78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="79" customHeight="1" spans="1:6">
-      <c r="A79" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="3">
-        <v>9</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2931,9 +2985,9 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -2944,34 +2998,34 @@
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:6">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:6">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2979,57 +3033,269 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" customHeight="1" spans="1:6">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:6">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
+      <c r="D87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="4:4">
-      <c r="D86" s="8" t="s">
-        <v>176</v>
+      <c r="D91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:6">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="2">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:6">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:6">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:6">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D99" etc:filterBottomFollowUsedRange="1">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="G4:M7"/>
   </mergeCells>
@@ -3057,6 +3323,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<autofilters xmlns="https://web.wps.cn/et/2018/main">
+  <sheetItem sheetStid="1">
+    <filterData filterID="914677184"/>
+  </sheetItem>
+</autofilters>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -3065,12 +3339,12 @@
     </woSheetProps>
   </woSheetsProps>
   <woBookProps>
-    <bookSettings fileId="" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+    <bookSettings fileId="" isFilterShared="0" coreConquerUserId="" isAutoUpdatePaused="0" filterType="user" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
   </woBookProps>
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -3078,6 +3352,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3086,7 +3369,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
